--- a/Data cleansing/output data/доп регрессоры обработанные.xlsx
+++ b/Data cleansing/output data/доп регрессоры обработанные.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ГОРОД АСТАНА</t>
+          <t>ГАСТАНА</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ГОРОД АЛМАТЫ</t>
+          <t>ГАЛМАТЫ</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -6633,50 +6633,132 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ГОРОД ШЫМКЕНТ</t>
+          <t>ГШЫМКЕНТ</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>-0.1290322580645158</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.557142857142858</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.83225806451613</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20.54193548387097</v>
+      </c>
+      <c r="H17" t="n">
+        <v>26.07666666666667</v>
+      </c>
+      <c r="I17" t="n">
+        <v>28.63870967741935</v>
+      </c>
+      <c r="J17" t="n">
+        <v>25.01612903225806</v>
+      </c>
+      <c r="K17" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="L17" t="n">
+        <v>13.20967741935484</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.736666666666667</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.280645161290323</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4.129032258064516</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.710344827586209</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>11.74516129032258</v>
+      </c>
+      <c r="R17" t="n">
+        <v>14.35666666666666</v>
+      </c>
+      <c r="S17" t="n">
+        <v>19.89354838709677</v>
+      </c>
+      <c r="T17" t="n">
+        <v>25.09666666666667</v>
+      </c>
+      <c r="U17" t="n">
+        <v>26.93870967741935</v>
+      </c>
+      <c r="V17" t="n">
+        <v>27.03870967741934</v>
+      </c>
+      <c r="W17" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10.0741935483871</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3.726666666666666</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2.925806451612902</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.3387096774193548</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>5.619354838709678</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21.74193548387097</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>28.60322580645161</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>26.35806451612904</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>21.06666666666667</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13.35161290322581</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>8.593333333333332</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>-0.2548387096774197</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>-0.2387096774193546</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.767857142857143</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>11.06129032258064</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>14.08666666666667</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>19.21935483870968</v>
+      </c>
       <c r="AR17" t="n">
         <v>24.14333333333333</v>
       </c>
@@ -12631,7 +12713,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ГОРОД АСТАНА</t>
+          <t>ГАСТАНА</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -13003,7 +13085,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ГОРОД АЛМАТЫ</t>
+          <t>ГАЛМАТЫ</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -13375,7 +13457,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ГОРОД ШЫМКЕНТ</t>
+          <t>ГШЫМКЕНТ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -19703,7 +19785,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ГОРОД АСТАНА</t>
+          <t>ГАСТАНА</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -19849,7 +19931,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ГОРОД АЛМАТЫ</t>
+          <t>ГАЛМАТЫ</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -20009,7 +20091,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ГОРОД ШЫМКЕНТ</t>
+          <t>ГШЫМКЕНТ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -26317,7 +26399,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ГОРОД АСТАНА</t>
+          <t>ГАСТАНА</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -26689,7 +26771,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ГОРОД АЛМАТЫ</t>
+          <t>ГАЛМАТЫ</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -27061,50 +27143,132 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ГОРОД ШЫМКЕНТ</t>
+          <t>ГШЫМКЕНТ</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr"/>
-      <c r="AH79" t="inlineStr"/>
-      <c r="AI79" t="inlineStr"/>
-      <c r="AJ79" t="inlineStr"/>
-      <c r="AK79" t="inlineStr"/>
-      <c r="AL79" t="inlineStr"/>
-      <c r="AM79" t="inlineStr"/>
-      <c r="AN79" t="inlineStr"/>
-      <c r="AO79" t="inlineStr"/>
-      <c r="AP79" t="inlineStr"/>
-      <c r="AQ79" t="inlineStr"/>
+      <c r="C79" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="D79" t="n">
+        <v>75.39999999999999</v>
+      </c>
+      <c r="E79" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="F79" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="G79" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J79" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K79" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="L79" t="n">
+        <v>92.80000000000001</v>
+      </c>
+      <c r="M79" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="N79" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="O79" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="P79" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="R79" t="n">
+        <v>63.70000000000001</v>
+      </c>
+      <c r="S79" t="n">
+        <v>41</v>
+      </c>
+      <c r="T79" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="U79" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X79" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>80.10000000000001</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>69.30000000000001</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>78.69999999999999</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>26.9</v>
+      </c>
       <c r="AR79" t="n">
         <v>24.2</v>
       </c>
@@ -33059,7 +33223,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ГОРОД АСТАНА</t>
+          <t>ГАСТАНА</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -33431,7 +33595,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ГОРОД АЛМАТЫ</t>
+          <t>ГАЛМАТЫ</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -33803,50 +33967,132 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ГОРОД ШЫМКЕНТ</t>
+          <t>ГШЫМКЕНТ</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
-      <c r="AC99" t="inlineStr"/>
-      <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="inlineStr"/>
-      <c r="AH99" t="inlineStr"/>
-      <c r="AI99" t="inlineStr"/>
-      <c r="AJ99" t="inlineStr"/>
-      <c r="AK99" t="inlineStr"/>
-      <c r="AL99" t="inlineStr"/>
-      <c r="AM99" t="inlineStr"/>
-      <c r="AN99" t="inlineStr"/>
-      <c r="AO99" t="inlineStr"/>
-      <c r="AP99" t="inlineStr"/>
-      <c r="AQ99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>67498.5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>65083.83333333334</v>
+      </c>
+      <c r="E99" t="n">
+        <v>64392.83333333334</v>
+      </c>
+      <c r="F99" t="n">
+        <v>64300.66666666666</v>
+      </c>
+      <c r="G99" t="n">
+        <v>65459</v>
+      </c>
+      <c r="H99" t="n">
+        <v>70299</v>
+      </c>
+      <c r="I99" t="n">
+        <v>74439.85714285714</v>
+      </c>
+      <c r="J99" t="n">
+        <v>73674</v>
+      </c>
+      <c r="K99" t="n">
+        <v>73109</v>
+      </c>
+      <c r="L99" t="n">
+        <v>72490.28571428571</v>
+      </c>
+      <c r="M99" t="n">
+        <v>71890.42857142857</v>
+      </c>
+      <c r="N99" t="n">
+        <v>71413.57142857143</v>
+      </c>
+      <c r="O99" t="n">
+        <v>67498.5</v>
+      </c>
+      <c r="P99" t="n">
+        <v>65083.83333333334</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>64392.83333333334</v>
+      </c>
+      <c r="R99" t="n">
+        <v>64300.66666666666</v>
+      </c>
+      <c r="S99" t="n">
+        <v>65459</v>
+      </c>
+      <c r="T99" t="n">
+        <v>70299</v>
+      </c>
+      <c r="U99" t="n">
+        <v>74439.85714285714</v>
+      </c>
+      <c r="V99" t="n">
+        <v>73674</v>
+      </c>
+      <c r="W99" t="n">
+        <v>73109</v>
+      </c>
+      <c r="X99" t="n">
+        <v>72490.28571428571</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>71890.42857142858</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>71413.57142857142</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>67498.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>65083.83333333334</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>64392.83333333334</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>64300.66666666666</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>65459</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>70299</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>74439.85714285714</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>73674</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>73109</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>72490.28571428571</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>71890.42857142858</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>71413.57142857142</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>67498.5</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>65083.83333333334</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>64392.83333333334</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>64300.66666666666</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>65459</v>
+      </c>
       <c r="AR99" t="n">
         <v>80886</v>
       </c>
@@ -40173,7 +40419,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ГОРОД АСТАНА</t>
+          <t>ГАСТАНА</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -40545,7 +40791,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ГОРОД АЛМАТЫ</t>
+          <t>ГАЛМАТЫ</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -40917,50 +41163,132 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ГОРОД ШЫМКЕНТ</t>
+          <t>ГШЫМКЕНТ</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr"/>
-      <c r="AB120" t="inlineStr"/>
-      <c r="AC120" t="inlineStr"/>
-      <c r="AD120" t="inlineStr"/>
-      <c r="AE120" t="inlineStr"/>
-      <c r="AF120" t="inlineStr"/>
-      <c r="AG120" t="inlineStr"/>
-      <c r="AH120" t="inlineStr"/>
-      <c r="AI120" t="inlineStr"/>
-      <c r="AJ120" t="inlineStr"/>
-      <c r="AK120" t="inlineStr"/>
-      <c r="AL120" t="inlineStr"/>
-      <c r="AM120" t="inlineStr"/>
-      <c r="AN120" t="inlineStr"/>
-      <c r="AO120" t="inlineStr"/>
-      <c r="AP120" t="inlineStr"/>
-      <c r="AQ120" t="inlineStr"/>
+      <c r="C120" t="n">
+        <v>12418.83333333333</v>
+      </c>
+      <c r="D120" t="n">
+        <v>12063</v>
+      </c>
+      <c r="E120" t="n">
+        <v>11987.66666666667</v>
+      </c>
+      <c r="F120" t="n">
+        <v>12254.16666666667</v>
+      </c>
+      <c r="G120" t="n">
+        <v>12734</v>
+      </c>
+      <c r="H120" t="n">
+        <v>12512.85714285714</v>
+      </c>
+      <c r="I120" t="n">
+        <v>13112.57142857143</v>
+      </c>
+      <c r="J120" t="n">
+        <v>12987.42857142857</v>
+      </c>
+      <c r="K120" t="n">
+        <v>12918</v>
+      </c>
+      <c r="L120" t="n">
+        <v>12905.14285714286</v>
+      </c>
+      <c r="M120" t="n">
+        <v>12820.28571428571</v>
+      </c>
+      <c r="N120" t="n">
+        <v>13270.42857142857</v>
+      </c>
+      <c r="O120" t="n">
+        <v>12418.83333333333</v>
+      </c>
+      <c r="P120" t="n">
+        <v>12063</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>11987.66666666667</v>
+      </c>
+      <c r="R120" t="n">
+        <v>12254.16666666667</v>
+      </c>
+      <c r="S120" t="n">
+        <v>12734</v>
+      </c>
+      <c r="T120" t="n">
+        <v>12512.85714285714</v>
+      </c>
+      <c r="U120" t="n">
+        <v>13112.57142857143</v>
+      </c>
+      <c r="V120" t="n">
+        <v>12987.42857142857</v>
+      </c>
+      <c r="W120" t="n">
+        <v>12918</v>
+      </c>
+      <c r="X120" t="n">
+        <v>12905.14285714286</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>12820.28571428571</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>13270.42857142857</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>12418.83333333333</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>12063</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>11987.66666666667</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>12254.16666666667</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>12734</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>12512.85714285714</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>13112.57142857143</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>12987.42857142857</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>12918</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>12905.14285714286</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>12820.28571428571</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>13270.42857142857</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>12418.83333333333</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>12063</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>11987.66666666667</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>12254.16666666667</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>12734</v>
+      </c>
       <c r="AR120" t="n">
         <v>11215</v>
       </c>
@@ -47287,7 +47615,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ГОРОД АСТАНА</t>
+          <t>ГАСТАНА</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -47659,7 +47987,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ГОРОД АЛМАТЫ</t>
+          <t>ГАЛМАТЫ</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -48031,50 +48359,132 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ГОРОД ШЫМКЕНТ</t>
+          <t>ГШЫМКЕНТ</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
-      <c r="AA141" t="inlineStr"/>
-      <c r="AB141" t="inlineStr"/>
-      <c r="AC141" t="inlineStr"/>
-      <c r="AD141" t="inlineStr"/>
-      <c r="AE141" t="inlineStr"/>
-      <c r="AF141" t="inlineStr"/>
-      <c r="AG141" t="inlineStr"/>
-      <c r="AH141" t="inlineStr"/>
-      <c r="AI141" t="inlineStr"/>
-      <c r="AJ141" t="inlineStr"/>
-      <c r="AK141" t="inlineStr"/>
-      <c r="AL141" t="inlineStr"/>
-      <c r="AM141" t="inlineStr"/>
-      <c r="AN141" t="inlineStr"/>
-      <c r="AO141" t="inlineStr"/>
-      <c r="AP141" t="inlineStr"/>
-      <c r="AQ141" t="inlineStr"/>
+      <c r="C141" t="n">
+        <v>5294.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4101</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4213</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4304.6</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4342.6</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5252.666666666667</v>
+      </c>
+      <c r="I141" t="n">
+        <v>5679</v>
+      </c>
+      <c r="J141" t="n">
+        <v>5630.833333333333</v>
+      </c>
+      <c r="K141" t="n">
+        <v>5398.666666666667</v>
+      </c>
+      <c r="L141" t="n">
+        <v>5340.5</v>
+      </c>
+      <c r="M141" t="n">
+        <v>5270.833333333333</v>
+      </c>
+      <c r="N141" t="n">
+        <v>5038</v>
+      </c>
+      <c r="O141" t="n">
+        <v>5294.8</v>
+      </c>
+      <c r="P141" t="n">
+        <v>4101</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>4213</v>
+      </c>
+      <c r="R141" t="n">
+        <v>4304.599999999999</v>
+      </c>
+      <c r="S141" t="n">
+        <v>4342.599999999999</v>
+      </c>
+      <c r="T141" t="n">
+        <v>5252.666666666667</v>
+      </c>
+      <c r="U141" t="n">
+        <v>5679</v>
+      </c>
+      <c r="V141" t="n">
+        <v>5630.833333333333</v>
+      </c>
+      <c r="W141" t="n">
+        <v>5398.666666666667</v>
+      </c>
+      <c r="X141" t="n">
+        <v>5340.5</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>5270.833333333333</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>5038</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>5294.8</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>4101</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>4213</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>4304.6</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>4342.6</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>5252.666666666667</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>5679</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>5630.833333333333</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>5398.666666666667</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>5340.5</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>5270.833333333333</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>5038</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>5294.8</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>4101</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>4213</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>4304.6</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>4342.6</v>
+      </c>
       <c r="AR141" t="n">
         <v>9787</v>
       </c>
@@ -54401,7 +54811,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ГОРОД АСТАНА</t>
+          <t>ГАСТАНА</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -54653,7 +55063,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ГОРОД АЛМАТЫ</t>
+          <t>ГАЛМАТЫ</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -55025,50 +55435,132 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ГОРОД ШЫМКЕНТ</t>
+          <t>ГШЫМКЕНТ</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr"/>
-      <c r="T162" t="inlineStr"/>
-      <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr"/>
-      <c r="W162" t="inlineStr"/>
-      <c r="X162" t="inlineStr"/>
-      <c r="Y162" t="inlineStr"/>
-      <c r="Z162" t="inlineStr"/>
-      <c r="AA162" t="inlineStr"/>
-      <c r="AB162" t="inlineStr"/>
-      <c r="AC162" t="inlineStr"/>
-      <c r="AD162" t="inlineStr"/>
-      <c r="AE162" t="inlineStr"/>
-      <c r="AF162" t="inlineStr"/>
-      <c r="AG162" t="inlineStr"/>
-      <c r="AH162" t="inlineStr"/>
-      <c r="AI162" t="inlineStr"/>
-      <c r="AJ162" t="inlineStr"/>
-      <c r="AK162" t="inlineStr"/>
-      <c r="AL162" t="inlineStr"/>
-      <c r="AM162" t="inlineStr"/>
-      <c r="AN162" t="inlineStr"/>
-      <c r="AO162" t="inlineStr"/>
-      <c r="AP162" t="inlineStr"/>
-      <c r="AQ162" t="inlineStr"/>
+      <c r="C162" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="D162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="E162" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="F162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="G162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="H162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="I162" t="n">
+        <v>25</v>
+      </c>
+      <c r="J162" t="n">
+        <v>25</v>
+      </c>
+      <c r="K162" t="n">
+        <v>25</v>
+      </c>
+      <c r="L162" t="n">
+        <v>25</v>
+      </c>
+      <c r="M162" t="n">
+        <v>25</v>
+      </c>
+      <c r="N162" t="n">
+        <v>25</v>
+      </c>
+      <c r="O162" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="P162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="R162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="S162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="T162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="U162" t="n">
+        <v>25</v>
+      </c>
+      <c r="V162" t="n">
+        <v>25</v>
+      </c>
+      <c r="W162" t="n">
+        <v>25</v>
+      </c>
+      <c r="X162" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>28.75</v>
+      </c>
       <c r="AR162" t="n">
         <v>28.75</v>
       </c>
